--- a/data/analysis/social_media_analytics/tweets_engage_temporal-all_mus-Q.xlsx
+++ b/data/analysis/social_media_analytics/tweets_engage_temporal-all_mus-Q.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="4">
   <si>
     <t>ts</t>
   </si>
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -409,7 +409,7 @@
         <v>43555</v>
       </c>
       <c r="B2">
-        <v>80099</v>
+        <v>78477</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -420,7 +420,7 @@
         <v>43646</v>
       </c>
       <c r="B3">
-        <v>74916</v>
+        <v>73442</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -431,7 +431,7 @@
         <v>43738</v>
       </c>
       <c r="B4">
-        <v>68949</v>
+        <v>67464</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
@@ -442,7 +442,7 @@
         <v>43830</v>
       </c>
       <c r="B5">
-        <v>63034</v>
+        <v>61710</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
@@ -453,7 +453,7 @@
         <v>43921</v>
       </c>
       <c r="B6">
-        <v>75874</v>
+        <v>73578</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
@@ -464,7 +464,7 @@
         <v>44012</v>
       </c>
       <c r="B7">
-        <v>130110</v>
+        <v>126747</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
@@ -475,7 +475,7 @@
         <v>44104</v>
       </c>
       <c r="B8">
-        <v>95704</v>
+        <v>92712</v>
       </c>
       <c r="C8" t="s">
         <v>3</v>
@@ -486,7 +486,7 @@
         <v>44196</v>
       </c>
       <c r="B9">
-        <v>86067</v>
+        <v>83152</v>
       </c>
       <c r="C9" t="s">
         <v>3</v>
@@ -497,7 +497,7 @@
         <v>44286</v>
       </c>
       <c r="B10">
-        <v>97108</v>
+        <v>93596</v>
       </c>
       <c r="C10" t="s">
         <v>3</v>
@@ -508,7 +508,7 @@
         <v>44377</v>
       </c>
       <c r="B11">
-        <v>84390</v>
+        <v>81302</v>
       </c>
       <c r="C11" t="s">
         <v>3</v>
@@ -519,9 +519,42 @@
         <v>44469</v>
       </c>
       <c r="B12">
-        <v>79233</v>
+        <v>75451</v>
       </c>
       <c r="C12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2">
+        <v>44561</v>
+      </c>
+      <c r="B13">
+        <v>64443</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2">
+        <v>44651</v>
+      </c>
+      <c r="B14">
+        <v>67004</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2">
+        <v>44742</v>
+      </c>
+      <c r="B15">
+        <v>45389</v>
+      </c>
+      <c r="C15" t="s">
         <v>3</v>
       </c>
     </row>
